--- a/Plancheck/check_protocol/paroi ganglions.xlsx
+++ b/Plancheck/check_protocol/paroi ganglions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21480" windowHeight="5400" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21480" windowHeight="5400"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="153">
   <si>
     <t>Name_of check_protocol</t>
   </si>
@@ -171,9 +171,6 @@
     <t>grid_size</t>
   </si>
   <si>
-    <t>Algo_name</t>
-  </si>
-  <si>
     <t>AAA_15605New</t>
   </si>
   <si>
@@ -195,412 +192,430 @@
     <t>100% au point de référence</t>
   </si>
   <si>
+    <t>EMC_15605</t>
+  </si>
+  <si>
+    <t>Enable gating</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>CouchInterior</t>
+  </si>
+  <si>
+    <t>CouchSurface</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>vol min</t>
+  </si>
+  <si>
+    <t>vol max</t>
+  </si>
+  <si>
+    <t>Expected part</t>
+  </si>
+  <si>
+    <t>Left/right</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Contrainte 1</t>
+  </si>
+  <si>
+    <t>Contrainte 2</t>
+  </si>
+  <si>
+    <t>Contrainte 3</t>
+  </si>
+  <si>
+    <t>Contrainte 4</t>
+  </si>
+  <si>
+    <t>Contrainte 5</t>
+  </si>
+  <si>
+    <t>Contrainte 6</t>
+  </si>
+  <si>
+    <t>Contrainte 7</t>
+  </si>
+  <si>
+    <t>Contrainte 8</t>
+  </si>
+  <si>
+    <t>Contrainte 9</t>
+  </si>
+  <si>
+    <t>Contrainte 10</t>
+  </si>
+  <si>
+    <t>,,,</t>
+  </si>
+  <si>
+    <t>6X</t>
+  </si>
+  <si>
+    <t>6X-FFF</t>
+  </si>
+  <si>
+    <t>10X</t>
+  </si>
+  <si>
+    <t>10X-FFF</t>
+  </si>
+  <si>
+    <t>6E</t>
+  </si>
+  <si>
+    <t>9E</t>
+  </si>
+  <si>
+    <t>12E</t>
+  </si>
+  <si>
+    <t>CQ</t>
+  </si>
+  <si>
+    <t>PDIP</t>
+  </si>
+  <si>
+    <t>Octa4D</t>
+  </si>
+  <si>
+    <t>RUBY</t>
+  </si>
+  <si>
+    <t>Energie des faisceaux</t>
+  </si>
+  <si>
+    <t>Table de tolérance</t>
+  </si>
+  <si>
+    <t>thorax</t>
+  </si>
+  <si>
+    <t>pelvis</t>
+  </si>
+  <si>
+    <t>non fixe</t>
+  </si>
+  <si>
+    <t>RISQUE COLLISION</t>
+  </si>
+  <si>
+    <t>IMRT/STEREO</t>
+  </si>
+  <si>
+    <t>STEC OS</t>
+  </si>
+  <si>
+    <t>membre</t>
+  </si>
+  <si>
+    <t>GDE TOLERANCE</t>
+  </si>
+  <si>
+    <t>physique</t>
+  </si>
+  <si>
+    <t>sein</t>
+  </si>
+  <si>
+    <t>vertebre</t>
+  </si>
+  <si>
+    <t>ORFIT BLEU</t>
+  </si>
+  <si>
+    <t>tete et cou</t>
+  </si>
+  <si>
+    <t>DV</t>
+  </si>
+  <si>
+    <t>STIC</t>
+  </si>
+  <si>
+    <t>physique_0tolera</t>
+  </si>
+  <si>
+    <t>NTO</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>PO options</t>
+  </si>
+  <si>
+    <t>AirCavityCorrection</t>
+  </si>
+  <si>
+    <t>ApertureShapeController</t>
+  </si>
+  <si>
+    <t>AutoFeathering</t>
+  </si>
+  <si>
+    <t>ConvergenceMode</t>
+  </si>
+  <si>
+    <t>DoseResolution</t>
+  </si>
+  <si>
+    <t>DoseResolutionSRSAndHyperArc</t>
+  </si>
+  <si>
+    <t>FieldGrouping</t>
+  </si>
+  <si>
+    <t>Inhomog. Correction</t>
+  </si>
+  <si>
+    <t>MRLevelAtRestart</t>
+  </si>
+  <si>
+    <t>SmoothX</t>
+  </si>
+  <si>
+    <t>SmoothY</t>
+  </si>
+  <si>
+    <t>UseGPU</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>MR3</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>Boost lit T</t>
+  </si>
+  <si>
+    <t>Canal med</t>
+  </si>
+  <si>
+    <t>Clips</t>
+  </si>
+  <si>
+    <t>Cœur</t>
+  </si>
+  <si>
+    <t>CTV paroi</t>
+  </si>
+  <si>
+    <t>Mamelon</t>
+  </si>
+  <si>
+    <t>PoumonDt</t>
+  </si>
+  <si>
+    <t>PoumonGche</t>
+  </si>
+  <si>
+    <t>Poumons</t>
+  </si>
+  <si>
+    <t>Sein contro</t>
+  </si>
+  <si>
+    <t>Thyroide</t>
+  </si>
+  <si>
+    <t>Trachee</t>
+  </si>
+  <si>
+    <t>CE-(PTV+1cm)</t>
+  </si>
+  <si>
+    <t>Isole_sein</t>
+  </si>
+  <si>
+    <t>Isole15mm</t>
+  </si>
+  <si>
+    <t>Seuillage</t>
+  </si>
+  <si>
+    <t>mean&lt;8Gy</t>
+  </si>
+  <si>
+    <t>PoumonHOMO</t>
+  </si>
+  <si>
+    <t>V5Gy&lt;30%</t>
+  </si>
+  <si>
+    <t>V20Gy&lt;15%</t>
+  </si>
+  <si>
+    <t>Jaw Tracking (NOVA)</t>
+  </si>
+  <si>
+    <t>D0,1cc&lt;18Gy</t>
+  </si>
+  <si>
+    <t>V10Gy&lt;10%</t>
+  </si>
+  <si>
+    <t>CanalMed+5</t>
+  </si>
+  <si>
+    <t>D0,1cc&lt;20Gy</t>
+  </si>
+  <si>
+    <t>V15Gy&lt;10%</t>
+  </si>
+  <si>
+    <t>V25Gy&lt;5%</t>
+  </si>
+  <si>
+    <t>mean&lt;11Gy</t>
+  </si>
+  <si>
+    <t>V5Gy&lt;70%</t>
+  </si>
+  <si>
+    <t>V20Gy&lt;18%</t>
+  </si>
+  <si>
+    <t>PoumonCONTRO</t>
+  </si>
+  <si>
+    <t>mean&lt;5Gy</t>
+  </si>
+  <si>
+    <t>V5Gy&lt;50%</t>
+  </si>
+  <si>
+    <t>V5Gy&lt;25%</t>
+  </si>
+  <si>
+    <t>TetehumeraleGche</t>
+  </si>
+  <si>
+    <t>D0,1cc&lt;47,5Gy</t>
+  </si>
+  <si>
+    <t>PTV paroi</t>
+  </si>
+  <si>
+    <t>PTV Axillaire</t>
+  </si>
+  <si>
+    <t>PTV sous clav</t>
+  </si>
+  <si>
+    <t>PTV sus clav</t>
+  </si>
+  <si>
+    <t>PTV cmi</t>
+  </si>
+  <si>
+    <t>TetehumeraleHOMOE</t>
+  </si>
+  <si>
+    <t>TetehumeraleDte</t>
+  </si>
+  <si>
+    <t>PTV susclav</t>
+  </si>
+  <si>
+    <t>Plexus Brachial</t>
+  </si>
+  <si>
+    <t>Oesophage</t>
+  </si>
+  <si>
+    <t>Larynx</t>
+  </si>
+  <si>
+    <t>Foie</t>
+  </si>
+  <si>
+    <t>PTVTOTAL</t>
+  </si>
+  <si>
+    <t>RingPTVgg</t>
+  </si>
+  <si>
+    <t>RingPTVParoi</t>
+  </si>
+  <si>
+    <t>D95%&gt;47,5Gy</t>
+  </si>
+  <si>
+    <t>D98%&gt;45Gy</t>
+  </si>
+  <si>
+    <t>D2%&lt;53,5Gy</t>
+  </si>
+  <si>
+    <t>paroi ganglions</t>
+  </si>
+  <si>
+    <t>Algo options</t>
+  </si>
+  <si>
+    <t>CalculationGridSizeInCM</t>
+  </si>
+  <si>
+    <t>CalculationGridSizeInCMForSRSAndHyperArc</t>
+  </si>
+  <si>
+    <t>FieldNormalizationType</t>
+  </si>
+  <si>
+    <t>HeterogeneityCorrection</t>
+  </si>
+  <si>
     <t>Acuros_15605New</t>
-  </si>
-  <si>
-    <t>EMC_15605</t>
-  </si>
-  <si>
-    <t>Enable gating</t>
-  </si>
-  <si>
-    <t>Oui</t>
-  </si>
-  <si>
-    <t>Non</t>
-  </si>
-  <si>
-    <t>CouchInterior</t>
-  </si>
-  <si>
-    <t>CouchSurface</t>
-  </si>
-  <si>
-    <t>HU</t>
-  </si>
-  <si>
-    <t>vol min</t>
-  </si>
-  <si>
-    <t>vol max</t>
-  </si>
-  <si>
-    <t>Expected part</t>
-  </si>
-  <si>
-    <t>Left/right</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Contrainte 1</t>
-  </si>
-  <si>
-    <t>Contrainte 2</t>
-  </si>
-  <si>
-    <t>Contrainte 3</t>
-  </si>
-  <si>
-    <t>Contrainte 4</t>
-  </si>
-  <si>
-    <t>Contrainte 5</t>
-  </si>
-  <si>
-    <t>Contrainte 6</t>
-  </si>
-  <si>
-    <t>Contrainte 7</t>
-  </si>
-  <si>
-    <t>Contrainte 8</t>
-  </si>
-  <si>
-    <t>Contrainte 9</t>
-  </si>
-  <si>
-    <t>Contrainte 10</t>
-  </si>
-  <si>
-    <t>,,,</t>
-  </si>
-  <si>
-    <t>6X</t>
-  </si>
-  <si>
-    <t>6X-FFF</t>
-  </si>
-  <si>
-    <t>10X</t>
-  </si>
-  <si>
-    <t>10X-FFF</t>
-  </si>
-  <si>
-    <t>6E</t>
-  </si>
-  <si>
-    <t>9E</t>
-  </si>
-  <si>
-    <t>12E</t>
-  </si>
-  <si>
-    <t>CQ</t>
-  </si>
-  <si>
-    <t>PDIP</t>
-  </si>
-  <si>
-    <t>Octa4D</t>
-  </si>
-  <si>
-    <t>RUBY</t>
-  </si>
-  <si>
-    <t>Energie des faisceaux</t>
-  </si>
-  <si>
-    <t>Table de tolérance</t>
-  </si>
-  <si>
-    <t>thorax</t>
-  </si>
-  <si>
-    <t>pelvis</t>
-  </si>
-  <si>
-    <t>non fixe</t>
-  </si>
-  <si>
-    <t>RISQUE COLLISION</t>
-  </si>
-  <si>
-    <t>IMRT/STEREO</t>
-  </si>
-  <si>
-    <t>STEC OS</t>
-  </si>
-  <si>
-    <t>membre</t>
-  </si>
-  <si>
-    <t>GDE TOLERANCE</t>
-  </si>
-  <si>
-    <t>physique</t>
-  </si>
-  <si>
-    <t>sein</t>
-  </si>
-  <si>
-    <t>vertebre</t>
-  </si>
-  <si>
-    <t>ORFIT BLEU</t>
-  </si>
-  <si>
-    <t>tete et cou</t>
-  </si>
-  <si>
-    <t>DV</t>
-  </si>
-  <si>
-    <t>STIC</t>
-  </si>
-  <si>
-    <t>physique_0tolera</t>
-  </si>
-  <si>
-    <t>NTO</t>
-  </si>
-  <si>
-    <t>Auto</t>
-  </si>
-  <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>PO options</t>
-  </si>
-  <si>
-    <t>AirCavityCorrection</t>
-  </si>
-  <si>
-    <t>ApertureShapeController</t>
-  </si>
-  <si>
-    <t>AutoFeathering</t>
-  </si>
-  <si>
-    <t>ConvergenceMode</t>
-  </si>
-  <si>
-    <t>DoseResolution</t>
-  </si>
-  <si>
-    <t>DoseResolutionSRSAndHyperArc</t>
-  </si>
-  <si>
-    <t>FieldGrouping</t>
-  </si>
-  <si>
-    <t>Inhomog. Correction</t>
-  </si>
-  <si>
-    <t>MRLevelAtRestart</t>
-  </si>
-  <si>
-    <t>SmoothX</t>
-  </si>
-  <si>
-    <t>SmoothY</t>
-  </si>
-  <si>
-    <t>UseGPU</t>
-  </si>
-  <si>
-    <t>Off</t>
-  </si>
-  <si>
-    <t>Moderate</t>
-  </si>
-  <si>
-    <t>On</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>MR3</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>Mandatory</t>
-  </si>
-  <si>
-    <t>oui</t>
-  </si>
-  <si>
-    <t>Boost lit T</t>
-  </si>
-  <si>
-    <t>Canal med</t>
-  </si>
-  <si>
-    <t>Clips</t>
-  </si>
-  <si>
-    <t>Cœur</t>
-  </si>
-  <si>
-    <t>CTV paroi</t>
-  </si>
-  <si>
-    <t>Mamelon</t>
-  </si>
-  <si>
-    <t>PoumonDt</t>
-  </si>
-  <si>
-    <t>PoumonGche</t>
-  </si>
-  <si>
-    <t>Poumons</t>
-  </si>
-  <si>
-    <t>Sein contro</t>
-  </si>
-  <si>
-    <t>Thyroide</t>
-  </si>
-  <si>
-    <t>Trachee</t>
-  </si>
-  <si>
-    <t>CE-(PTV+1cm)</t>
-  </si>
-  <si>
-    <t>Isole_sein</t>
-  </si>
-  <si>
-    <t>Isole15mm</t>
-  </si>
-  <si>
-    <t>Seuillage</t>
-  </si>
-  <si>
-    <t>mean&lt;8Gy</t>
-  </si>
-  <si>
-    <t>PoumonHOMO</t>
-  </si>
-  <si>
-    <t>V5Gy&lt;30%</t>
-  </si>
-  <si>
-    <t>V20Gy&lt;15%</t>
-  </si>
-  <si>
-    <t>Jaw Tracking (NOVA)</t>
-  </si>
-  <si>
-    <t>D0,1cc&lt;18Gy</t>
-  </si>
-  <si>
-    <t>V10Gy&lt;10%</t>
-  </si>
-  <si>
-    <t>CanalMed+5</t>
-  </si>
-  <si>
-    <t>D0,1cc&lt;20Gy</t>
-  </si>
-  <si>
-    <t>V15Gy&lt;10%</t>
-  </si>
-  <si>
-    <t>V25Gy&lt;5%</t>
-  </si>
-  <si>
-    <t>mean&lt;11Gy</t>
-  </si>
-  <si>
-    <t>V5Gy&lt;70%</t>
-  </si>
-  <si>
-    <t>V20Gy&lt;18%</t>
-  </si>
-  <si>
-    <t>PoumonCONTRO</t>
-  </si>
-  <si>
-    <t>mean&lt;5Gy</t>
-  </si>
-  <si>
-    <t>V5Gy&lt;50%</t>
-  </si>
-  <si>
-    <t>V5Gy&lt;25%</t>
-  </si>
-  <si>
-    <t>TetehumeraleGche</t>
-  </si>
-  <si>
-    <t>D0,1cc&lt;47,5Gy</t>
-  </si>
-  <si>
-    <t>PTV paroi</t>
-  </si>
-  <si>
-    <t>PTV Axillaire</t>
-  </si>
-  <si>
-    <t>PTV sous clav</t>
-  </si>
-  <si>
-    <t>PTV sus clav</t>
-  </si>
-  <si>
-    <t>PTV cmi</t>
-  </si>
-  <si>
-    <t>TetehumeraleHOMOE</t>
-  </si>
-  <si>
-    <t>TetehumeraleDte</t>
-  </si>
-  <si>
-    <t>PTV susclav</t>
-  </si>
-  <si>
-    <t>Plexus Brachial</t>
-  </si>
-  <si>
-    <t>Oesophage</t>
-  </si>
-  <si>
-    <t>Larynx</t>
-  </si>
-  <si>
-    <t>Foie</t>
-  </si>
-  <si>
-    <t>PTVTOTAL</t>
-  </si>
-  <si>
-    <t>RingPTVgg</t>
-  </si>
-  <si>
-    <t>RingPTVParoi</t>
-  </si>
-  <si>
-    <t>D95%&gt;47,5Gy</t>
-  </si>
-  <si>
-    <t>D98%&gt;45Gy</t>
-  </si>
-  <si>
-    <t>D2%&lt;53,5Gy</t>
   </si>
 </sst>
 </file>
@@ -1193,16 +1208,15 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1530,8 +1544,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -1576,32 +1590,19 @@
       <c r="G2" s="17"/>
       <c r="H2" s="18"/>
       <c r="L2" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="17">
-        <v>0.125</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0.125</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="18"/>
       <c r="L3" s="14" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1618,14 +1619,14 @@
       <c r="G4" s="17"/>
       <c r="H4" s="18"/>
       <c r="L4" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="20">
+        <v>8</v>
+      </c>
+      <c r="B5" s="19">
         <v>1</v>
       </c>
       <c r="C5" s="17"/>
@@ -1637,10 +1638,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -1649,15 +1650,15 @@
       <c r="G6" s="17"/>
       <c r="H6" s="18"/>
       <c r="L6" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>16</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -1666,15 +1667,15 @@
       <c r="G7" s="17"/>
       <c r="H7" s="18"/>
       <c r="L7" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -1685,10 +1686,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -1697,15 +1698,15 @@
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
       <c r="L9" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -1714,7 +1715,7 @@
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
       <c r="L10" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1728,10 +1729,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>68</v>
       </c>
       <c r="C12" s="17">
         <v>300</v>
@@ -1750,7 +1751,7 @@
       </c>
       <c r="H12" s="18"/>
       <c r="L12" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1764,10 +1765,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -1776,7 +1777,7 @@
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="L14" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1788,12 +1789,12 @@
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="L15" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1803,15 +1804,15 @@
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
       <c r="L16" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="17"/>
@@ -1820,15 +1821,15 @@
       <c r="G17" s="17"/>
       <c r="H17" s="18"/>
       <c r="L17" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="17"/>
@@ -1837,15 +1838,15 @@
       <c r="G18" s="17"/>
       <c r="H18" s="18"/>
       <c r="L18" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="17"/>
@@ -1854,15 +1855,15 @@
       <c r="G19" s="17"/>
       <c r="H19" s="18"/>
       <c r="L19" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="17"/>
@@ -1873,10 +1874,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="17"/>
@@ -1885,15 +1886,15 @@
       <c r="G21" s="17"/>
       <c r="H21" s="18"/>
       <c r="L21" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="17"/>
@@ -1902,15 +1903,15 @@
       <c r="G22" s="17"/>
       <c r="H22" s="18"/>
       <c r="L22" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="17"/>
@@ -1919,15 +1920,15 @@
       <c r="G23" s="17"/>
       <c r="H23" s="18"/>
       <c r="L23" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="17"/>
@@ -1938,10 +1939,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="17"/>
@@ -1952,7 +1953,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B26" s="17">
         <v>200</v>
@@ -1964,12 +1965,12 @@
       <c r="G26" s="17"/>
       <c r="H26" s="18"/>
       <c r="L26" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B27" s="17">
         <v>200</v>
@@ -1981,15 +1982,15 @@
       <c r="G27" s="17"/>
       <c r="H27" s="18"/>
       <c r="L27" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -1998,93 +1999,127 @@
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="L28" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L29" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="L30" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L31" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L30" s="14" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="17">
+        <v>0.125</v>
+      </c>
+      <c r="L32" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L31" s="14" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="17">
+        <v>0.125</v>
+      </c>
+      <c r="L33" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L32" s="14" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L34" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L33" s="14" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L35" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L34" s="14" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L36" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L35" s="14" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L37" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L38" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L36" s="14" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L39" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L37" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L38" s="14" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G40" s="20"/>
+      <c r="L40" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L39" s="14" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L41" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G40" s="21"/>
-      <c r="L40" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L41" s="14" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L43" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L44" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L43" s="14" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L46" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L47" s="14" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L44" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L46" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L47" s="14" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2092,7 +2127,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>$L$6:$L$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>$L$2:$L$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
@@ -2127,7 +2162,7 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -2144,32 +2179,32 @@
         <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="G1" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E3" s="11">
         <v>1</v>
@@ -2180,12 +2215,12 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5" s="11">
         <v>1</v>
@@ -2196,23 +2231,23 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E8" s="11">
         <v>1</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
@@ -2220,13 +2255,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G9" s="11">
         <v>1</v>
@@ -2234,7 +2269,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G10" s="11">
         <v>1</v>
@@ -2242,7 +2277,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
@@ -2253,7 +2288,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E12" s="11">
         <v>1</v>
@@ -2264,7 +2299,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -2275,7 +2310,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E14" s="11">
         <v>1</v>
@@ -2286,7 +2321,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E15" s="11">
         <v>1</v>
@@ -2297,7 +2332,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E16" s="11">
         <v>1</v>
@@ -2305,7 +2340,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E17" s="11">
         <v>1</v>
@@ -2313,7 +2348,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E18" s="11">
         <v>1</v>
@@ -2324,7 +2359,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E19" s="11">
         <v>1</v>
@@ -2332,7 +2367,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E20" s="11">
         <v>1</v>
@@ -2340,7 +2375,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E21" s="11">
         <v>1</v>
@@ -2351,7 +2386,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E22" s="11">
         <v>1</v>
@@ -2362,7 +2397,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E23" s="11">
         <v>1</v>
@@ -2373,7 +2408,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E24" s="11">
         <v>1</v>
@@ -2410,47 +2445,47 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2458,7 +2493,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2466,12 +2501,12 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2504,44 +2539,44 @@
         <v>2</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>-1000</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>-300</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2573,198 +2608,198 @@
         <v>2</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" t="s">
         <v>121</v>
-      </c>
-      <c r="C5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
         <v>125</v>
-      </c>
-      <c r="C8" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" t="s">
         <v>145</v>
-      </c>
-      <c r="C10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" t="s">
         <v>145</v>
-      </c>
-      <c r="C11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" t="s">
         <v>145</v>
-      </c>
-      <c r="C12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" t="s">
         <v>145</v>
-      </c>
-      <c r="C13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
         <v>145</v>
-      </c>
-      <c r="C14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Plancheck/check_protocol/paroi ganglions.xlsx
+++ b/Plancheck/check_protocol/paroi ganglions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21480" windowHeight="5400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -22,142 +22,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Auteur</author>
-  </authors>
-  <commentList>
-    <comment ref="C12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-pritorité
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-distance</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-start
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-stop
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-abaissement
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="165">
   <si>
     <t>Name_of check_protocol</t>
   </si>
@@ -192,6 +58,9 @@
     <t>100% au point de référence</t>
   </si>
   <si>
+    <t>Acuros_15605New</t>
+  </si>
+  <si>
     <t>EMC_15605</t>
   </si>
   <si>
@@ -435,6 +304,63 @@
     <t>oui</t>
   </si>
   <si>
+    <t>Algo options</t>
+  </si>
+  <si>
+    <t>CalculationGridSizeInCM</t>
+  </si>
+  <si>
+    <t>CalculationGridSizeInCMForSRSAndHyperArc</t>
+  </si>
+  <si>
+    <t>FieldNormalizationType</t>
+  </si>
+  <si>
+    <t>HeterogeneityCorrection</t>
+  </si>
+  <si>
+    <t>VMAT</t>
+  </si>
+  <si>
+    <t>DCA</t>
+  </si>
+  <si>
+    <t>IMRT</t>
+  </si>
+  <si>
+    <t>RTC</t>
+  </si>
+  <si>
+    <t>Electrons</t>
+  </si>
+  <si>
+    <t>Tomo</t>
+  </si>
+  <si>
+    <t>Hyperarc</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Priorité</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Abaissement</t>
+  </si>
+  <si>
+    <t>paroi ganglions</t>
+  </si>
+  <si>
     <t>Boost lit T</t>
   </si>
   <si>
@@ -471,6 +397,39 @@
     <t>Trachee</t>
   </si>
   <si>
+    <t>TetehumeraleGche</t>
+  </si>
+  <si>
+    <t>TetehumeraleDte</t>
+  </si>
+  <si>
+    <t>PTV susclav</t>
+  </si>
+  <si>
+    <t>PTV sous clav</t>
+  </si>
+  <si>
+    <t>PTV paroi</t>
+  </si>
+  <si>
+    <t>PTV cmi</t>
+  </si>
+  <si>
+    <t>PTV Axillaire</t>
+  </si>
+  <si>
+    <t>Plexus Brachial</t>
+  </si>
+  <si>
+    <t>Oesophage</t>
+  </si>
+  <si>
+    <t>Larynx</t>
+  </si>
+  <si>
+    <t>Foie</t>
+  </si>
+  <si>
     <t>CE-(PTV+1cm)</t>
   </si>
   <si>
@@ -483,139 +442,82 @@
     <t>Seuillage</t>
   </si>
   <si>
+    <t>PTVTOTAL</t>
+  </si>
+  <si>
+    <t>RingPTVgg</t>
+  </si>
+  <si>
+    <t>RingPTVParoi</t>
+  </si>
+  <si>
+    <t>CanalMed+5</t>
+  </si>
+  <si>
+    <t>D0,1cc&lt;18Gy</t>
+  </si>
+  <si>
+    <t>V10Gy&lt;10%</t>
+  </si>
+  <si>
+    <t>D0,1cc&lt;20Gy</t>
+  </si>
+  <si>
     <t>mean&lt;8Gy</t>
   </si>
   <si>
+    <t>V15Gy&lt;10%</t>
+  </si>
+  <si>
+    <t>V25Gy&lt;5%</t>
+  </si>
+  <si>
     <t>PoumonHOMO</t>
   </si>
   <si>
+    <t>mean&lt;11Gy</t>
+  </si>
+  <si>
+    <t>V5Gy&lt;70%</t>
+  </si>
+  <si>
+    <t>V20Gy&lt;18%</t>
+  </si>
+  <si>
+    <t>PoumonCONTRO</t>
+  </si>
+  <si>
+    <t>mean&lt;5Gy</t>
+  </si>
+  <si>
     <t>V5Gy&lt;30%</t>
   </si>
   <si>
+    <t>V5Gy&lt;50%</t>
+  </si>
+  <si>
     <t>V20Gy&lt;15%</t>
   </si>
   <si>
-    <t>Jaw Tracking (NOVA)</t>
-  </si>
-  <si>
-    <t>D0,1cc&lt;18Gy</t>
-  </si>
-  <si>
-    <t>V10Gy&lt;10%</t>
-  </si>
-  <si>
-    <t>CanalMed+5</t>
-  </si>
-  <si>
-    <t>D0,1cc&lt;20Gy</t>
-  </si>
-  <si>
-    <t>V15Gy&lt;10%</t>
-  </si>
-  <si>
-    <t>V25Gy&lt;5%</t>
-  </si>
-  <si>
-    <t>mean&lt;11Gy</t>
-  </si>
-  <si>
-    <t>V5Gy&lt;70%</t>
-  </si>
-  <si>
-    <t>V20Gy&lt;18%</t>
-  </si>
-  <si>
-    <t>PoumonCONTRO</t>
-  </si>
-  <si>
-    <t>mean&lt;5Gy</t>
-  </si>
-  <si>
-    <t>V5Gy&lt;50%</t>
-  </si>
-  <si>
     <t>V5Gy&lt;25%</t>
   </si>
   <si>
-    <t>TetehumeraleGche</t>
+    <t>TetehumeraleHOMOE</t>
   </si>
   <si>
     <t>D0,1cc&lt;47,5Gy</t>
   </si>
   <si>
-    <t>PTV paroi</t>
-  </si>
-  <si>
-    <t>PTV Axillaire</t>
-  </si>
-  <si>
-    <t>PTV sous clav</t>
+    <t>D95%&gt;47,5Gy</t>
+  </si>
+  <si>
+    <t>D98%&gt;45Gy</t>
+  </si>
+  <si>
+    <t>D2%&lt;53,5Gy</t>
   </si>
   <si>
     <t>PTV sus clav</t>
-  </si>
-  <si>
-    <t>PTV cmi</t>
-  </si>
-  <si>
-    <t>TetehumeraleHOMOE</t>
-  </si>
-  <si>
-    <t>TetehumeraleDte</t>
-  </si>
-  <si>
-    <t>PTV susclav</t>
-  </si>
-  <si>
-    <t>Plexus Brachial</t>
-  </si>
-  <si>
-    <t>Oesophage</t>
-  </si>
-  <si>
-    <t>Larynx</t>
-  </si>
-  <si>
-    <t>Foie</t>
-  </si>
-  <si>
-    <t>PTVTOTAL</t>
-  </si>
-  <si>
-    <t>RingPTVgg</t>
-  </si>
-  <si>
-    <t>RingPTVParoi</t>
-  </si>
-  <si>
-    <t>D95%&gt;47,5Gy</t>
-  </si>
-  <si>
-    <t>D98%&gt;45Gy</t>
-  </si>
-  <si>
-    <t>D2%&lt;53,5Gy</t>
-  </si>
-  <si>
-    <t>paroi ganglions</t>
-  </si>
-  <si>
-    <t>Algo options</t>
-  </si>
-  <si>
-    <t>CalculationGridSizeInCM</t>
-  </si>
-  <si>
-    <t>CalculationGridSizeInCMForSRSAndHyperArc</t>
-  </si>
-  <si>
-    <t>FieldNormalizationType</t>
-  </si>
-  <si>
-    <t>HeterogeneityCorrection</t>
-  </si>
-  <si>
-    <t>Acuros_15605New</t>
   </si>
 </sst>
 </file>
@@ -765,20 +667,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -997,6 +899,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,7 +1081,7 @@
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1172,6 +1092,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1192,13 +1113,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1208,15 +1127,56 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1538,588 +1498,778 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="20" style="11" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="11"/>
+    <col min="1" max="1" width="44.85546875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="20" style="12" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="12"/>
     <col min="9" max="9" width="3" style="2" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="41.28515625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="41.28515625" style="16" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="L2" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18">
         <v>2.5</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="L2" s="14" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="L3" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18">
+        <v>1.25</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="L4" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="L6" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="L7" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="L9" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="L10" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
+      <c r="L13" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+      <c r="L14" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
+      <c r="L15" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
+      <c r="L16" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31"/>
+      <c r="L17" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
+      <c r="L18" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
+      <c r="L19" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="L21" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
+      <c r="L22" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
+      <c r="L23" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="30">
+        <v>200</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
+      <c r="L26" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="30">
+        <v>200</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
+      <c r="L27" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="L28" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="L29" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="L30" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
-      <c r="L3" s="14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="L31" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="27">
+        <v>0.125</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="L32" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="27">
+        <v>0.125</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="L33" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="L34" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="L35" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="L36" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="28"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="L37" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="28"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="L38" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="28"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="L39" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="L40" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="L41" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="23">
+        <v>300</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="24"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="17">
-        <v>1.25</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="L4" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="19">
-        <v>1</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="L6" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="L7" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="L9" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="L10" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="23">
+        <v>100</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="23">
+        <v>30</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="L48" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="L49" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="17">
-        <v>300</v>
-      </c>
-      <c r="D12" s="17">
-        <v>3</v>
-      </c>
-      <c r="E12" s="17">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L51" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L52" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L55" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L56" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L57" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="17">
-        <v>30</v>
-      </c>
-      <c r="G12" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="L12" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="L14" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="L15" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
-      <c r="L16" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-      <c r="L17" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="L18" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="L19" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="L21" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="L22" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-      <c r="L23" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="17">
-        <v>200</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
-      <c r="L26" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="17">
-        <v>200</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18"/>
-      <c r="L27" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="L28" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L29" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="L30" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="B32" s="17">
-        <v>0.125</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="B33" s="17">
-        <v>0.125</v>
-      </c>
-      <c r="L33" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="L35" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L36" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L37" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L38" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L39" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G40" s="20"/>
-      <c r="L40" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L41" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L43" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L44" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L46" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L47" s="14" t="s">
-        <v>68</v>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L58" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L59" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L60" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L61" s="16" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2133,25 +2283,24 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
       <formula1>$L$9:$L$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
-      <formula1>$L$12:$L$19</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:D9">
       <formula1>$L$21:$L$23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44 B12">
+      <formula1>$L$48:$L$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14">
+      <formula1>$L$55:$L$61</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
       <formula1>$L$26:$L$41</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:B13">
-      <formula1>$L$43:$L$45</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
-      <formula1>$L$46:$L$47</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+      <formula1>$L$13:$L$19</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2163,257 +2312,257 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A2" sqref="A2:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="10" customWidth="1"/>
-    <col min="2" max="4" width="11.42578125" style="11"/>
-    <col min="5" max="5" width="15.42578125" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="11"/>
+    <col min="1" max="1" width="16.42578125" style="11" customWidth="1"/>
+    <col min="2" max="4" width="11.42578125" style="12"/>
+    <col min="5" max="5" width="15.42578125" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>90</v>
+      <c r="F1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>92</v>
+      <c r="A2" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
-      <c r="G3" s="11">
+      <c r="A3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>94</v>
+      <c r="A4" s="11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="A5" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>96</v>
+      <c r="A6" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>97</v>
+      <c r="A7" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="11">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="11">
+      <c r="A8" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="11">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="11">
+      <c r="A9" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="11">
+      <c r="A10" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="A11" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="11">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11">
+      <c r="A12" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="11">
-        <v>1</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="A13" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="11">
-        <v>1</v>
-      </c>
-      <c r="G14" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="12">
+        <v>1</v>
+      </c>
+      <c r="G21" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E15" s="11">
-        <v>1</v>
-      </c>
-      <c r="G15" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="11">
-        <v>1</v>
-      </c>
-      <c r="G18" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="11">
-        <v>1</v>
-      </c>
-      <c r="G21" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" s="11">
-        <v>1</v>
-      </c>
-      <c r="G22" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="11">
-        <v>1</v>
-      </c>
-      <c r="G23" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="11">
-        <v>1</v>
-      </c>
-      <c r="G24" s="11">
+      <c r="E24" s="12">
+        <v>1</v>
+      </c>
+      <c r="G24" s="12">
         <v>1</v>
       </c>
     </row>
@@ -2431,7 +2580,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2445,70 +2594,115 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>105</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>106</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>107</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6">
+        <v>139</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7">
+        <v>140</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>142</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9">
+        <v>142</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2522,10 +2716,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2534,50 +2728,64 @@
     <col min="5" max="5" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>90</v>
+      <c r="F1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6">
         <v>-1000</v>
       </c>
-      <c r="G2" t="s">
-        <v>91</v>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6">
         <v>-300</v>
       </c>
-      <c r="G3" t="s">
-        <v>91</v>
-      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2591,215 +2799,214 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="11" width="14.140625" customWidth="1"/>
+    <col min="2" max="4" width="20.28515625" style="12" customWidth="1"/>
+    <col min="5" max="11" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="K1" s="14" t="s">
         <v>34</v>
       </c>
+      <c r="L1" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C2" t="s">
-        <v>114</v>
+      <c r="B2" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" t="s">
-        <v>118</v>
+      <c r="B4" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="A5" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B7" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" t="s">
-        <v>125</v>
+      <c r="B8" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="B12" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" t="s">
-        <v>145</v>
+      <c r="B14" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Plancheck/check_protocol/paroi ganglions.xlsx
+++ b/Plancheck/check_protocol/paroi ganglions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -1504,7 +1504,7 @@
   </sheetPr>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -2311,8 +2311,8 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2580,7 +2580,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2716,10 +2716,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2780,12 +2780,6 @@
       <c r="G3" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2800,7 +2794,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Plancheck/check_protocol/paroi ganglions.xlsx
+++ b/Plancheck/check_protocol/paroi ganglions.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="166">
   <si>
     <t>Name_of check_protocol</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>PTV sus clav</t>
+  </si>
+  <si>
+    <t>Coeur</t>
   </si>
 </sst>
 </file>
@@ -2312,7 +2315,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2369,7 +2372,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="E5" s="12">
         <v>1</v>
